--- a/previous_results/2023-07-20.Fitting (params = log chr-misseg + all chrs ps; data = sc + bulk; stats = comparision in 6 versions)/List of stats version.xlsx
+++ b/previous_results/2023-07-20.Fitting (params = log chr-misseg + all chrs ps; data = sc + bulk; stats = comparision in 6 versions)/List of stats version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangzijin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangzijin/DLPfit/previous_results/2023-07-20.Fitting (params = log chr-misseg + all chrs ps; data = sc + bulk; stats = comparision in 6 versions)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DC84A4-111D-3442-9E59-3860BC0EBB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E122EC11-4BD8-464E-A312-DE517BA5ACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{93329D77-E8F7-6A47-A528-BD6F8FB6CFA8}"/>
+    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{93329D77-E8F7-6A47-A528-BD6F8FB6CFA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Wasserstein_dist_bulk</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>Specific target list</t>
+  </si>
+  <si>
+    <t>v7</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>v9</t>
+  </si>
+  <si>
+    <t>v10</t>
   </si>
 </sst>
 </file>
@@ -513,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B9F1-EE68-6848-A20E-3361C8F4E1EB}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,9 +547,17 @@
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -565,37 +585,69 @@
         <v>37</v>
       </c>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -635,8 +687,32 @@
       <c r="M3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -676,8 +752,32 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -702,8 +802,32 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -734,8 +858,32 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -757,18 +905,36 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -778,8 +944,17 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -789,8 +964,20 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -798,17 +985,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -848,53 +1035,77 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -913,8 +1124,32 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -933,8 +1168,32 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -956,8 +1215,26 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -976,25 +1253,49 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -1003,12 +1304,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="20">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -1016,6 +1314,17 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
